--- a/DesignProject.xlsx
+++ b/DesignProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN THANH NAM\Desktop\ProjectManageShops\ManageShops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FDA2B8-15DA-4605-A2ED-F3094E1D0C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F38C22-102F-48F7-A221-D747388A7036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,21 +407,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>4, account-feature : tạo AccountService, thêm, xóa, cập nhật, tìm kiếm-lấy thông 1 hoặc nhiều account, hoàn thiện api tính năng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (5 ngày)</t>
-    </r>
-  </si>
-  <si>
     <t>tổng 60 ngày</t>
   </si>
   <si>
@@ -443,8 +428,14 @@
     <t>bắt đầu 6/4</t>
   </si>
   <si>
+    <t xml:space="preserve">6, product-feature : tạo ProductService, code các tính năng thêm, cập nhật, xóa, tìm kiếm-lấy thông tin 1 hoặc nhiều sản </t>
+  </si>
+  <si>
+    <t>7, store-shop-feature :  tạo StoreShopService, thêm, xóa, cập nhật, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều phiếu nhập và xuất sản phẩm, kiểm tra số lượng tồn kho,</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">3, shop-feature : tạo ShopService, thêm, xóa, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều shop,  hoàn thiện api tính năng </t>
+      <t xml:space="preserve">2, shop-feature : tạo ShopService, thêm, xóa, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều shop,  hoàn thiện api tính năng </t>
     </r>
     <r>
       <rPr>
@@ -459,7 +450,37 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2, role-feature : tạo RoleService, thêm, xóa, cập nhập, hoàn thiện api tính năng </t>
+      <t>3, account-feature : tạo AccountService, thêm, xóa, cập nhật, tìm kiếm-lấy thông 1 hoặc nhiều account, hoàn thiện api tính năng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (5 ngày)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4, user-feature : tạo UserService thêm, xóa, cập nhật, tìm kiếm-lấy thông 1 hoặc nhiều user, hoàn thiện api tính năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5 ngày)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5, role-feature : tạo RoleService, thêm, xóa, cập nhập, hoàn thiện api tính năng </t>
     </r>
     <r>
       <rPr>
@@ -471,27 +492,6 @@
       </rPr>
       <t>(4 ngày)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5, user-feature : tạo UserService thêm, xóa, cập nhật, tìm kiếm-lấy thông 1 hoặc nhiều user, hoàn thiện api tính năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(5 ngày)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">6, product-feature : tạo ProductService, code các tính năng thêm, cập nhật, xóa, tìm kiếm-lấy thông tin 1 hoặc nhiều sản </t>
-  </si>
-  <si>
-    <t>7, store-shop-feature :  tạo StoreShopService, thêm, xóa, cập nhật, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều phiếu nhập và xuất sản phẩm, kiểm tra số lượng tồn kho,</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -702,7 +702,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2937,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="Q96" sqref="Q96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4345,110 +4344,110 @@
       <c r="U92" s="5"/>
     </row>
     <row r="93" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
     </row>
     <row r="94" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B94" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="27"/>
-      <c r="P94" s="27"/>
+      <c r="B94" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
       <c r="W94" s="5"/>
     </row>
     <row r="95" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B95" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="28"/>
-      <c r="Q95" s="28"/>
+      <c r="B95" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="13"/>
-      <c r="V95" s="13"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
       <c r="W95" s="5"/>
     </row>
     <row r="96" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B96" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
+      <c r="B96" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
     </row>
     <row r="97" spans="2:30" ht="18" x14ac:dyDescent="0.35">
       <c r="B97" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
@@ -4508,28 +4507,28 @@
       <c r="W98" s="5"/>
     </row>
     <row r="99" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B99" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="28"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="28"/>
-      <c r="Q99" s="28"/>
-      <c r="R99" s="28"/>
-      <c r="S99" s="28"/>
-      <c r="T99" s="28"/>
-      <c r="U99" s="28"/>
+      <c r="B99" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
     </row>
@@ -4846,7 +4845,7 @@
     </row>
     <row r="112" spans="2:30" ht="18" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
@@ -4972,7 +4971,7 @@
     </row>
     <row r="117" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A117" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
@@ -4999,7 +4998,7 @@
     </row>
     <row r="118" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -5581,7 +5580,7 @@
     <mergeCell ref="A118:F118"/>
     <mergeCell ref="O49:T50"/>
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B94:P94"/>
+    <mergeCell ref="B93:P93"/>
     <mergeCell ref="B97:O97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignProject.xlsx
+++ b/DesignProject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN THANH NAM\Desktop\ProjectManageShops\ManageShops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN THANH NAM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F38C22-102F-48F7-A221-D747388A7036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F95445-AC53-4176-92D6-6A61D3C32BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>Thiết kế phần mềm quản lí cửa hàng</t>
   </si>
@@ -299,9 +299,6 @@
     <t>1, Quản lí shop :   thêm, sửa, xóa, tìm kiếm, lấy thông 1 hoặc nhiều cửa hàng</t>
   </si>
   <si>
-    <t>2,  Quản lí sản phẩm : thêm, cập nhật, xóa, tìm kiếm, lấy thông tin 1 hoặc nhiều sản phẩm, tính toán số lượng sản phẩm đã bán, còn lại trong cửa hàng,tính value theo số lượng</t>
-  </si>
-  <si>
     <t>3, quản lí nhân viên :  thêm, sửa, xóa, tìm kiếm, lấy thông 1 hoặc nhiều nhân viên</t>
   </si>
   <si>
@@ -338,12 +335,6 @@
     </r>
   </si>
   <si>
-    <t>9, statistical-feature : tạo StatisticalService, thống kê 2 bảng  : bảng statistical product thống kê (sản phẩm trong kho, trong cửa hàng, đã bán và hạn sử dụng)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10, security-feature : </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">11, exception-feature : tao 1 class Exception để bắt các lỗi trong complie time </t>
     </r>
@@ -363,36 +354,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">phẩm, tính toán số lượng sản phẩm đã bán, còn lại trong cửa hàng,tính value theo số lượng, hoàn thiện api cho tính năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(6 ngày)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8, order-feature : tạo OrderService, thêm, xóa, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều đơn hàng, hoàn thiện api tính năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(5 ngày)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">  hoàn thiện api tính năng</t>
     </r>
     <r>
@@ -428,14 +389,44 @@
     <t>bắt đầu 6/4</t>
   </si>
   <si>
-    <t xml:space="preserve">6, product-feature : tạo ProductService, code các tính năng thêm, cập nhật, xóa, tìm kiếm-lấy thông tin 1 hoặc nhiều sản </t>
-  </si>
-  <si>
-    <t>7, store-shop-feature :  tạo StoreShopService, thêm, xóa, cập nhật, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều phiếu nhập và xuất sản phẩm, kiểm tra số lượng tồn kho,</t>
+    <t>2,  Quản lí sản phẩm : thêm, cập nhật, xóa, tìm kiếm, lấy thông tin 1 hoặc nhiều sản phẩm</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2, shop-feature : tạo ShopService, thêm, xóa, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều shop,  hoàn thiện api tính năng </t>
+      <t xml:space="preserve">phẩm,  hoàn thiện api cho tính năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6 ngày)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2, security-feature : </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3, role-feature : tạo RoleService, thêm, xóa, cập nhập, hoàn thiện api tính năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4 ngày)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4, shop-feature : tạo ShopService, thêm, xóa, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều shop,  hoàn thiện api tính năng </t>
     </r>
     <r>
       <rPr>
@@ -450,7 +441,7 @@
   </si>
   <si>
     <r>
-      <t>3, account-feature : tạo AccountService, thêm, xóa, cập nhật, tìm kiếm-lấy thông 1 hoặc nhiều account, hoàn thiện api tính năng</t>
+      <t>5, account-feature : tạo AccountService, thêm, xóa, cập nhật, tìm kiếm-lấy thông 1 hoặc nhiều account, hoàn thiện api tính năng</t>
     </r>
     <r>
       <rPr>
@@ -465,7 +456,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">4, user-feature : tạo UserService thêm, xóa, cập nhật, tìm kiếm-lấy thông 1 hoặc nhiều user, hoàn thiện api tính năng </t>
+      <t xml:space="preserve">6, user-feature : tạo UserService thêm, xóa, cập nhật, tìm kiếm-lấy thông 1 hoặc nhiều user, hoàn thiện api tính năng </t>
     </r>
     <r>
       <rPr>
@@ -479,8 +470,14 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">7, product-feature : tạo ProductService, code các tính năng thêm, cập nhật, xóa, tìm kiếm-lấy thông tin 1 hoặc nhiều sản </t>
+  </si>
+  <si>
+    <t>8, store-shop-feature :  tạo StoreShopService, thêm, xóa, cập nhật, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều phiếu nhập và xuất sản phẩm, kiểm tra số lượng tồn kho,</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">5, role-feature : tạo RoleService, thêm, xóa, cập nhập, hoàn thiện api tính năng </t>
+      <t xml:space="preserve">9, order-feature : tạo OrderService, thêm, xóa, cập nhật, tìm kiếm-lấy thông tin 1 hoặc nhiều đơn hàng, hoàn thiện api tính năng </t>
     </r>
     <r>
       <rPr>
@@ -490,8 +487,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(4 ngày)</t>
+      <t>(5 ngày)</t>
     </r>
+  </si>
+  <si>
+    <t>10, statistical-feature : tạo StatisticalService, thống kê 2 bảng  : bảng statistical product thống kê (sản phẩm trong kho, trong cửa hàng, đã bán và hạn sử dụng)</t>
   </si>
 </sst>
 </file>
@@ -826,6 +826,44 @@
             <a:t>price </a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id importer</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -922,6 +960,13 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>described</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>category</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1363,13 +1408,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -1386,8 +1431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4709160" y="3489960"/>
-          <a:ext cx="1203960" cy="1668780"/>
+          <a:off x="4762500" y="4320540"/>
+          <a:ext cx="1203960" cy="1706880"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1460,6 +1505,13 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>date export</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>id shipper</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1912,8 +1964,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1928,8 +1980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2141220" y="5890260"/>
-          <a:ext cx="1539240" cy="1600200"/>
+          <a:off x="2179320" y="5890260"/>
+          <a:ext cx="1539240" cy="1744980"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1979,25 +2031,39 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> product</a:t>
+            <a:t>id client</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>id shop</a:t>
+            <a:t> product</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>id shop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>quantity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>id seller</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2264,8 +2330,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2281,7 +2347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="251460" y="3558540"/>
-          <a:ext cx="15240" cy="3139440"/>
+          <a:ext cx="15240" cy="3406140"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2307,15 +2373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2326,14 +2392,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="56" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274320" y="6675120"/>
-          <a:ext cx="1866900" cy="15240"/>
+          <a:off x="266700" y="6979920"/>
+          <a:ext cx="1905000" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2650,6 +2714,458 @@
           <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E81F84-82FA-CE00-598B-116874991975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426720" y="5303520"/>
+          <a:ext cx="7620" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2FE7DB-232C-8907-FCC4-A1C2E0312E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4328160" y="5570220"/>
+          <a:ext cx="403860" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F42EA5-D5D4-877A-5B06-B9B8A968FE41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4328160" y="5570220"/>
+          <a:ext cx="7620" cy="2293620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C09856E-A377-375B-05DC-BB904BF7C212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="434340" y="7840980"/>
+          <a:ext cx="10233660" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF481427-1C38-652F-0211-221E2C1B6A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439400" y="4046220"/>
+          <a:ext cx="182880" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD0D8BD-4FFB-066B-AFC2-8410AA2166AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10622280" y="4053840"/>
+          <a:ext cx="0" cy="3832860"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCA9FD2-4F2B-2A3B-1CBC-6A30EB0009E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2156460" y="7368540"/>
+          <a:ext cx="0" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E726B20F-CE40-5203-D8C5-44F3E8D91FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1897380" y="6758940"/>
+          <a:ext cx="281940" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EBAF76-F610-C85A-8D10-D2887E40A0FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1882140" y="6766560"/>
+          <a:ext cx="7620" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -2934,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE141"/>
+  <dimension ref="A1:AE142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="Q96" sqref="Q96"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3156,6 +3672,9 @@
         <v>11</v>
       </c>
       <c r="O17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="R19" s="3" t="s">
@@ -3917,7 +4436,7 @@
     <row r="70" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3945,7 +4464,7 @@
     <row r="71" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3967,7 +4486,7 @@
     <row r="72" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3991,7 +4510,7 @@
     <row r="73" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
       <c r="B73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -4015,7 +4534,7 @@
     <row r="74" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -4037,7 +4556,7 @@
     <row r="75" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -4063,7 +4582,7 @@
     <row r="76" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -4321,7 +4840,7 @@
     </row>
     <row r="92" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="B92" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4344,23 +4863,23 @@
       <c r="U92" s="5"/>
     </row>
     <row r="93" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B93" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
+      <c r="B93" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
@@ -4370,10 +4889,10 @@
       <c r="W93" s="5"/>
     </row>
     <row r="94" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B94" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -4390,16 +4909,16 @@
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="13"/>
-      <c r="V94" s="13"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
       <c r="W94" s="5"/>
     </row>
     <row r="95" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B95" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -4422,10 +4941,10 @@
       <c r="W95" s="5"/>
     </row>
     <row r="96" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B96" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -4444,24 +4963,26 @@
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
     </row>
     <row r="97" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B97" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="27"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
@@ -4470,45 +4991,36 @@
       <c r="U97" s="5"/>
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
-      <c r="X97" s="5"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
-      <c r="AB97" s="5"/>
-      <c r="AC97" s="5"/>
-      <c r="AD97" s="5"/>
     </row>
     <row r="98" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B98" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>84</v>
+      <c r="B98" s="5"/>
+      <c r="C98" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
     </row>
-    <row r="99" spans="2:30" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -4529,38 +5041,36 @@
       <c r="S99" s="5"/>
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
     </row>
     <row r="100" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B100" s="13"/>
-      <c r="C100" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="13"/>
+      <c r="B100" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
     </row>
     <row r="101" spans="2:30" ht="18" x14ac:dyDescent="0.35">
       <c r="B101" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -4579,54 +5089,54 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
       <c r="W101" s="5"/>
     </row>
     <row r="102" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B102" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
+      <c r="B102" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
     </row>
     <row r="103" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B103" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
+      <c r="B103" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="27"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
@@ -4634,11 +5144,21 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
     </row>
     <row r="104" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B104" s="5"/>
+      <c r="B104" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="C104" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -4663,7 +5183,7 @@
     </row>
     <row r="105" spans="2:30" ht="18" x14ac:dyDescent="0.35">
       <c r="B105" s="5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -4688,9 +5208,9 @@
       <c r="W105" s="5"/>
     </row>
     <row r="106" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B106" s="5"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -4699,25 +5219,25 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="13"/>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
     </row>
     <row r="107" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B107" s="5"/>
-      <c r="C107" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="B107" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -4740,36 +5260,36 @@
       <c r="W107" s="5"/>
     </row>
     <row r="108" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B108" s="5"/>
-      <c r="C108" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
+      <c r="B108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
       <c r="U108" s="5"/>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
     </row>
     <row r="109" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="B109" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -4789,29 +5309,28 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5"/>
-      <c r="W109" s="5"/>
     </row>
     <row r="110" spans="2:30" ht="18" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
-      <c r="C110" s="15" t="s">
-        <v>67</v>
+      <c r="C110" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
@@ -4819,7 +5338,7 @@
     </row>
     <row r="111" spans="2:30" ht="18" x14ac:dyDescent="0.35">
       <c r="B111" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -4844,12 +5363,10 @@
       <c r="W111" s="5"/>
     </row>
     <row r="112" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -4870,10 +5387,12 @@
       <c r="W112" s="5"/>
     </row>
     <row r="113" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="B113" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -4894,9 +5413,7 @@
       <c r="W113" s="5"/>
     </row>
     <row r="114" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B114" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4921,7 +5438,7 @@
     </row>
     <row r="115" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="B115" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -4946,7 +5463,9 @@
       <c r="W115" s="5"/>
     </row>
     <row r="116" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4969,26 +5488,23 @@
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
     </row>
-    <row r="117" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A117" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="22"/>
-      <c r="M117" s="22"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="22"/>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
+    <row r="117" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
@@ -4996,26 +5512,26 @@
       <c r="V117" s="5"/>
       <c r="W117" s="5"/>
     </row>
-    <row r="118" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A118" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
+    <row r="118" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A118" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
       <c r="R118" s="5"/>
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
@@ -5024,11 +5540,14 @@
       <c r="W118" s="5"/>
     </row>
     <row r="119" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+      <c r="A119" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -5575,13 +6094,37 @@
       <c r="V141" s="5"/>
       <c r="W141" s="5"/>
     </row>
+    <row r="142" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
     <mergeCell ref="O49:T50"/>
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B93:P93"/>
-    <mergeCell ref="B97:O97"/>
+    <mergeCell ref="B100:P100"/>
+    <mergeCell ref="B103:O103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DesignProject.xlsx
+++ b/DesignProject.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN THANH NAM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN THANH NAM\Desktop\ProjectManageShops\ManageShops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F95445-AC53-4176-92D6-6A61D3C32BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC8BE3-9F54-44C5-BCAC-3522C80E133B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1598,6 +1598,18 @@
             <a:t>address</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>hot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>line</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3452,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
